--- a/URS/DbLayouts/L8-遵循法令作業/JcicZ056.xlsx
+++ b/URS/DbLayouts/L8-遵循法令作業/JcicZ056.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L8-遵循法令作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98FE1A9-DE67-4655-92A3-3BE0FD11A7EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19404" windowHeight="6816" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="4" r:id="rId1"/>
@@ -362,13 +361,7 @@
     <t>CustId ASC , ClaimDate DESC</t>
   </si>
   <si>
-    <t>ClaimDateEq</t>
-  </si>
-  <si>
     <t>ClaimDate=</t>
-  </si>
-  <si>
-    <t>CustRcEq</t>
   </si>
   <si>
     <t>CustId= , AND ClaimDate=</t>
@@ -452,17 +445,10 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>CheckCaseStatus</t>
-  </si>
-  <si>
     <t>SubmitKey= , AND CustId= , AND ClaimDate= , AND CourtCode=</t>
   </si>
   <si>
     <t>CustId ASC , ClaimDate DESC , CaseStatus asc</t>
-  </si>
-  <si>
-    <t>CustIdEq</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CustId ASC , ClaimDate DESC</t>
@@ -523,12 +509,28 @@
   <si>
     <t>SubmitKey,CustId,CaseStatus,ClaimDate,CourtCode</t>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>custIdEq</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>claimDateEq</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>custRcEq</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkCaseStatus</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14">
     <font>
       <sz val="12"/>
@@ -782,9 +784,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般 2 2" xfId="3" xr:uid="{8C5A442F-3ED0-44C6-A2A5-9CAA0A3D85DB}"/>
-    <cellStyle name="一般 2 3" xfId="2" xr:uid="{38C0BC00-A92F-4190-B1CD-DE7CF8C1D3F6}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2 2" xfId="3"/>
+    <cellStyle name="一般 2 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -875,23 +877,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -927,23 +912,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1119,10 +1087,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -1145,7 +1113,7 @@
         <v>64</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="7"/>
@@ -1170,10 +1138,10 @@
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="13" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
@@ -1232,7 +1200,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="21" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B8" s="22"/>
       <c r="C8" s="13" t="s">
@@ -1245,7 +1213,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="21" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B9" s="22"/>
       <c r="C9" s="13" t="s">
@@ -1297,7 +1265,7 @@
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1337,7 +1305,7 @@
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="113.4">
@@ -1358,7 +1326,7 @@
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1369,10 +1337,10 @@
         <v>32</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E15" s="14">
         <v>8</v>
@@ -1410,7 +1378,7 @@
         <v>41</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E17" s="14">
         <v>4</v>
@@ -1480,7 +1448,7 @@
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="32.4">
@@ -1501,7 +1469,7 @@
       </c>
       <c r="F21" s="14"/>
       <c r="G21" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="32.4">
@@ -1512,7 +1480,7 @@
         <v>31</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>20</v>
@@ -1522,7 +1490,7 @@
       </c>
       <c r="F22" s="14"/>
       <c r="G22" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="32.4">
@@ -1543,7 +1511,7 @@
       </c>
       <c r="F23" s="14"/>
       <c r="G23" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1583,7 +1551,7 @@
       </c>
       <c r="F25" s="14"/>
       <c r="G25" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1648,10 +1616,10 @@
         <v>19</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D29" s="13" t="s">
         <v>18</v>
@@ -2138,12 +2106,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD8"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2167,7 +2135,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>70</v>
@@ -2178,10 +2146,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>71</v>
@@ -2189,55 +2157,55 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="19" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="19" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="19" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C7" s="19"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="19" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
